--- a/paper/Submissions/PlantCell/TPC revision/Table SX1 remove domestication sensitive isos.xlsx
+++ b/paper/Submissions/PlantCell/TPC revision/Table SX1 remove domestication sensitive isos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nesol\Documents\Projects\BcSolGWAS\paper\Submissions\PlantCell\TPC revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F186FCA-91AF-4D26-9678-8FE5A8E158BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7DB5F9-73F5-4737-9A60-394E7855C8D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18020" windowHeight="4170" xr2:uid="{5C3D0B6D-3E7A-4963-BDAD-A73DBB3B78FB}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Response: Scale.LS</t>
   </si>
@@ -90,13 +90,94 @@
   </si>
   <si>
     <t>% variance</t>
+  </si>
+  <si>
+    <t>genetic</t>
+  </si>
+  <si>
+    <t>Fixed Effect</t>
+  </si>
+  <si>
+    <t>% total variance</t>
+  </si>
+  <si>
+    <t>% genetic variance</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>F value</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Isolate</t>
+  </si>
+  <si>
+    <t>&lt;2e-16</t>
+  </si>
+  <si>
+    <t>Domestication</t>
+  </si>
+  <si>
+    <t>Domest/Plant</t>
+  </si>
+  <si>
+    <t>Iso:Domest</t>
+  </si>
+  <si>
+    <t>Iso:Domest/Plant</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Exp/Block</t>
+  </si>
+  <si>
+    <t>Exp:Iso</t>
+  </si>
+  <si>
+    <t>Exp:Domest</t>
+  </si>
+  <si>
+    <t>Exp:Domest/Plant</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,16 +185,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -121,12 +228,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,192 +637,617 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C37415-7E2D-4EB0-98C1-7332F0511250}">
-  <dimension ref="H2:P17"/>
+  <dimension ref="A2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="14" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="4" width="12.90625" customWidth="1"/>
+    <col min="6" max="8" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:16" x14ac:dyDescent="0.35">
-      <c r="H2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="8:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
       <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f>(I4/2441.99)*100</f>
+        <v>10.184726391180964</v>
+      </c>
+      <c r="H4">
+        <f>(I4/540.49)*100</f>
+        <v>46.01565246350534</v>
+      </c>
+      <c r="I4">
+        <v>248.71</v>
+      </c>
+      <c r="J4">
+        <v>94</v>
+      </c>
+      <c r="K4">
+        <v>13.1873</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G15" si="0">(I5/2441.99)*100</f>
+        <v>0.72686620338330621</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H8" si="1">(I5/540.49)*100</f>
+        <v>3.2840570593350478</v>
+      </c>
+      <c r="I5">
+        <v>17.75</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="8:16" x14ac:dyDescent="0.35">
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <f>(O4/2441.99)*100</f>
-        <v>10.184726391180964</v>
-      </c>
-      <c r="O4">
-        <v>248.71</v>
-      </c>
-    </row>
-    <row r="5" spans="8:16" x14ac:dyDescent="0.35">
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ref="M5:M15" si="0">(O5/2441.99)*100</f>
-        <v>0.72686620338330621</v>
-      </c>
-      <c r="O5">
-        <v>17.75</v>
-      </c>
-    </row>
-    <row r="6" spans="8:16" x14ac:dyDescent="0.35">
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>21.683954479748074</v>
-      </c>
-      <c r="O6">
-        <v>529.52</v>
-      </c>
-    </row>
-    <row r="7" spans="8:16" x14ac:dyDescent="0.35">
-      <c r="H7" t="s">
+      <c r="K5">
+        <v>88.460899999999995</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="M7">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>3.0933787607647867</v>
       </c>
-      <c r="O7">
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>13.976206775333495</v>
+      </c>
+      <c r="I6">
         <v>75.540000000000006</v>
       </c>
-    </row>
-    <row r="8" spans="8:16" x14ac:dyDescent="0.35">
-      <c r="H8" t="s">
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>37.652299999999997</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="M8">
+      <c r="G7">
         <f t="shared" si="0"/>
         <v>0.62490018386643686</v>
       </c>
-      <c r="O8">
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>2.8233639845325538</v>
+      </c>
+      <c r="I7">
         <v>15.26</v>
       </c>
-    </row>
-    <row r="9" spans="8:16" x14ac:dyDescent="0.35">
-      <c r="H9" t="s">
+      <c r="J7">
+        <v>94</v>
+      </c>
+      <c r="K7">
+        <v>0.80920000000000003</v>
+      </c>
+      <c r="L7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <f>(I8/2441.99)*100</f>
+        <v>7.503306729347786</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>33.900719717293562</v>
+      </c>
+      <c r="I8">
+        <v>183.23</v>
+      </c>
+      <c r="J8">
+        <v>940</v>
+      </c>
+      <c r="K8">
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="L8">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <f>(I9/2441.99)*100</f>
+        <v>21.683954479748074</v>
+      </c>
+      <c r="I9">
+        <v>529.52</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>2639.1770999999999</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="M9">
+      <c r="G10">
         <f t="shared" si="0"/>
         <v>7.9582635473527743</v>
       </c>
-      <c r="O9">
+      <c r="I10">
         <v>194.34</v>
       </c>
-    </row>
-    <row r="10" spans="8:16" x14ac:dyDescent="0.35">
-      <c r="H10" t="s">
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>242.15289999999999</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="M10">
+      <c r="G11">
         <f t="shared" si="0"/>
         <v>5.9942915409154018</v>
       </c>
-      <c r="O10">
+      <c r="I11">
         <v>146.38</v>
       </c>
-    </row>
-    <row r="11" spans="8:16" x14ac:dyDescent="0.35">
-      <c r="H11" t="s">
+      <c r="J11">
+        <v>94</v>
+      </c>
+      <c r="K11">
+        <v>7.7613000000000003</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="M11">
+      <c r="G12">
         <f t="shared" si="0"/>
         <v>2.9484150221745383E-2</v>
       </c>
-      <c r="O11">
+      <c r="I12">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="12" spans="8:16" x14ac:dyDescent="0.35">
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>7.503306729347786</v>
-      </c>
-      <c r="O12">
-        <v>183.23</v>
-      </c>
-    </row>
-    <row r="13" spans="8:16" x14ac:dyDescent="0.35">
-      <c r="H13" t="s">
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>3.6040999999999999</v>
+      </c>
+      <c r="L12">
+        <v>5.7700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="M13">
+      <c r="G13">
         <f t="shared" si="0"/>
         <v>1.9418588937710639</v>
       </c>
-      <c r="O13">
+      <c r="I13">
         <v>47.42</v>
       </c>
-    </row>
-    <row r="14" spans="8:16" x14ac:dyDescent="0.35">
-      <c r="H14" t="s">
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>23.633400000000002</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="M14">
+      <c r="G14">
         <f t="shared" si="0"/>
         <v>40.25896911944767</v>
       </c>
-      <c r="O14">
+      <c r="I14">
         <v>983.12</v>
       </c>
-    </row>
-    <row r="15" spans="8:16" x14ac:dyDescent="0.35">
-      <c r="H15" t="s">
+      <c r="J14">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="M15">
+      <c r="G15">
         <f t="shared" si="0"/>
         <v>100.00000000000003</v>
       </c>
-      <c r="O15">
-        <f>SUM(O4:O14)</f>
+      <c r="I15">
+        <f>SUM(I4:I14)</f>
         <v>2441.9900000000002</v>
       </c>
     </row>
-    <row r="16" spans="8:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
       <c r="H16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <f>SUM(I4:I8)</f>
+        <v>540.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="6">
+        <v>10.184726391180964</v>
+      </c>
+      <c r="C20" s="9">
+        <v>46.01565246350534</v>
+      </c>
+      <c r="D20" s="13">
+        <f>E20/2442</f>
+        <v>0.10184684684684685</v>
+      </c>
+      <c r="E20" s="9">
+        <v>248.71</v>
+      </c>
+      <c r="F20" s="9">
+        <v>13.1873</v>
+      </c>
+      <c r="G20" s="10">
+        <v>94</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.72686620338330621</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3.2840570593350478</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" ref="D21:D24" si="2">E21/2442</f>
+        <v>7.2686322686322689E-3</v>
+      </c>
+      <c r="E21" s="7">
+        <v>17.75</v>
+      </c>
+      <c r="F21" s="7">
+        <v>88.460899999999995</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3.0933787607647867</v>
+      </c>
+      <c r="C22" s="7">
+        <v>13.976206775333495</v>
+      </c>
+      <c r="D22" s="13">
+        <f t="shared" si="2"/>
+        <v>3.0933660933660935E-2</v>
+      </c>
+      <c r="E22" s="7">
+        <v>75.540000000000006</v>
+      </c>
+      <c r="F22" s="7">
+        <v>37.652299999999997</v>
+      </c>
+      <c r="G22" s="4">
+        <v>10</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.62490018386643686</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2.8233639845325538</v>
+      </c>
+      <c r="D23" s="13">
+        <f t="shared" si="2"/>
+        <v>6.2489762489762492E-3</v>
+      </c>
+      <c r="E23" s="7">
+        <v>15.26</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.80920000000000003</v>
+      </c>
+      <c r="G23" s="4">
+        <v>94</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="7">
+        <v>7.503306729347786</v>
+      </c>
+      <c r="C24" s="7">
+        <v>33.900719717293562</v>
+      </c>
+      <c r="D24" s="13">
+        <f t="shared" si="2"/>
+        <v>7.5032760032760035E-2</v>
+      </c>
+      <c r="E24" s="7">
+        <v>183.23</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="G24" s="4">
+        <v>940</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="7">
+        <v>21.683954479748074</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7">
+        <v>529.52</v>
+      </c>
+      <c r="F25" s="7">
+        <v>2639.1770999999999</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="7">
+        <v>7.9582635473527743</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7">
+        <v>194.34</v>
+      </c>
+      <c r="F26" s="7">
+        <v>242.15289999999999</v>
+      </c>
+      <c r="G26" s="4">
+        <v>4</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="7">
+        <v>5.9942915409154018</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7">
+        <v>146.38</v>
+      </c>
+      <c r="F27" s="7">
+        <v>7.7613000000000003</v>
+      </c>
+      <c r="G27" s="4">
+        <v>94</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="8">
+        <v>2.9484150221745383E-2</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="F28" s="7">
+        <v>3.6040999999999999</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>5.7700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1.9418588937710639</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7">
+        <v>47.42</v>
+      </c>
+      <c r="F29" s="7">
+        <v>23.633400000000002</v>
+      </c>
+      <c r="G29" s="4">
+        <v>10</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="7">
+        <v>40.25896911944767</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7">
+        <v>983.12</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="4">
+        <v>4900</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E31" s="12">
+        <f>SUM(E20:E30)</f>
+        <v>2441.9900000000002</v>
       </c>
     </row>
   </sheetData>
